--- a/New PCB, no jumpers/Available IO.xlsx
+++ b/New PCB, no jumpers/Available IO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>MCU-FPGA</t>
   </si>
@@ -316,13 +316,28 @@
   </si>
   <si>
     <t>P113</t>
+  </si>
+  <si>
+    <t>URXD0</t>
+  </si>
+  <si>
+    <t>UTXD0</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>DAC0</t>
+  </si>
+  <si>
+    <t>DAC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +345,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +366,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -354,14 +381,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,12 +684,12 @@
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -679,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -699,7 +729,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -719,7 +749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -739,53 +769,61 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -808,7 +846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -831,7 +869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -848,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -868,7 +906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -888,7 +926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -911,7 +949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -934,7 +972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -951,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1090,6 +1128,9 @@
       <c r="A27" t="s">
         <v>40</v>
       </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -1098,6 +1139,9 @@
       <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -1131,7 +1175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1147,7 +1191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1155,7 +1199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1163,7 +1207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1171,7 +1215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1182,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1193,7 +1237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -1212,7 +1256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1228,26 +1272,41 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1257,8 +1316,11 @@
       <c r="C46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -1267,6 +1329,9 @@
       </c>
       <c r="C47" t="s">
         <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
